--- a/Implementation/configs/d.xlsx
+++ b/Implementation/configs/d.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>frequency</t>
-  </si>
-  <si>
-    <t>issda</t>
   </si>
   <si>
     <t>Q</t>
@@ -374,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,13 +390,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -413,7 +410,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>6089</v>
@@ -439,7 +436,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>4710</v>
@@ -465,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>2000</v>
@@ -484,32 +481,6 @@
       </c>
       <c r="H4">
         <v>11856</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>35040</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>48</v>
-      </c>
-      <c r="H5">
-        <v>35040</v>
       </c>
     </row>
   </sheetData>
